--- a/Jogos_do_Dia/2024-03-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,13 +682,13 @@
         <v>3.5</v>
       </c>
       <c r="J2">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="K2">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>3.22</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -709,10 +709,10 @@
         <v>4</v>
       </c>
       <c r="S2">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="T2">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U2">
         <v>1.53</v>

--- a/Jogos_do_Dia/2024-03-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,13 +682,13 @@
         <v>3.5</v>
       </c>
       <c r="J2">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="K2">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -709,10 +709,10 @@
         <v>4</v>
       </c>
       <c r="S2">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="T2">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="U2">
         <v>1.53</v>
